--- a/Files/college_info/all_colleges/VASV/extra_info.xlsx
+++ b/Files/college_info/all_colleges/VASV/extra_info.xlsx
@@ -5,20 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Arshad Ali\Dropbox\Programming\KMIT\Projects\group\python project on dataset (1st year 2nd sem)\files\VASV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Arshad Ali\Dropbox\Programming\KMIT\Projects\group\python project on dataset (1st year 2nd sem)\files\all_colleges\VASV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A8FB13-B3C1-4E2E-930C-2E3506E0FED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033B5FF-68DA-4498-8BA1-F8534535EA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -916,7 +924,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
